--- a/biology/Histoire de la zoologie et de la botanique/Joseph-Henri_Léveillé/Joseph-Henri_Léveillé.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Joseph-Henri_Léveillé/Joseph-Henri_Léveillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joseph-Henri_L%C3%A9veill%C3%A9</t>
+          <t>Joseph-Henri_Léveillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean[1], dit Joseph-Henri Léveillé  est un médecin et mycologue français, né le 28 mai 1796 à Crux-la-Ville et mort le 4 février 1870[2] à Paris (5e arrondissement).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean, dit Joseph-Henri Léveillé  est un médecin et mycologue français, né le 28 mai 1796 à Crux-la-Ville et mort le 4 février 1870 à Paris (5e arrondissement).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joseph-Henri_L%C3%A9veill%C3%A9</t>
+          <t>Joseph-Henri_Léveillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Léveillé a étudié la médecine et la mycologie à l'Université de Paris, dont il est diplômé en 1824. 
 Il a été le premier, dans un article de 1837 intitulé Sur le hymenium des champignons, à proposer une description complète des basides et des cystides des champignons et à établir le rôle des basides dans la production des spores. Il a aussi montré l'importance des basides pour la taxinomie et proposé la distinction entre ascomycètes et basidiomycètes.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Joseph-Henri_L%C3%A9veill%C3%A9</t>
+          <t>Joseph-Henri_Léveillé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Découverte des basides et cystides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1837, médecin à Paris, il a l'idée de génie, comme Hedwig, de pratiquer systématiquement des coupes dans les lamelles des Agaricinées. Il est le premier à découvrir, décrire et nommer les basides et les cystides.. De nombreux mycologues avant lui comme Micheli, Gleditsch,  Bulliard, Nees von Esenbeck, Link, Persoon, Fries, Montagne, Ascherson, Corda, etc. avaient vu ces organes, mais sans en comprendre la signification. En 1837, il publie ses  Recherches sur l'hymenium des champignons.
 Il renouvelle souvent ses expériences devant Persoon (qui vit à Paris) étonné que des organes aussi constants et évidents aient pu échapper aux micrographes. Brongniart et Guillemin confirment ces découvertes au nom de l'Académie des sciences, et Léveillé emprunte à Guillemin le vocable baside (du grec = support) pour désigner les cellules spéciales qui portent les spores; et il nomma cystide (du grec = vessie), ces autres cellules spéciales ne portant pas de spores, et donc très distincte des thèques.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Joseph-Henri_L%C3%A9veill%C3%A9</t>
+          <t>Joseph-Henri_Léveillé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(1827) Mémoire sur l'ergot in Mém. Soc. Linn. Paris 5
 (1837) Sur le hymenium des champignons in Annales des Sciences Naturelles. Botanique 321 - 338
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Joseph-Henri_L%C3%A9veill%C3%A9</t>
+          <t>Joseph-Henri_Léveillé</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,7 +645,9 @@
           <t>Liste des taxons de Léveillé en mycologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Acroscyphus Lév.
 Asterina Lév.
